--- a/output/OCCAM_11403956000150.xlsx
+++ b/output/OCCAM_11403956000150.xlsx
@@ -1813,10 +1813,10 @@
         <v>44165</v>
       </c>
       <c r="B130">
-        <v>2.15878292</v>
+        <v>2.16505204</v>
       </c>
       <c r="C130">
-        <v>-0.003544967566676993</v>
+        <v>-0.001567340002156525</v>
       </c>
     </row>
   </sheetData>

--- a/output/OCCAM_11403956000150.xlsx
+++ b/output/OCCAM_11403956000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>OCCAM EQUITY HEDGE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1437 +383,1050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40268</v>
       </c>
       <c r="B2">
-        <v>0.005176980000000109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40298</v>
       </c>
       <c r="B3">
-        <v>0.01091946999999993</v>
-      </c>
-      <c r="C3">
         <v>0.005712914356633902</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40329</v>
       </c>
       <c r="B4">
-        <v>0.01854317000000005</v>
-      </c>
-      <c r="C4">
         <v>0.007541352428398707</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40359</v>
       </c>
       <c r="B5">
-        <v>0.02347915999999994</v>
-      </c>
-      <c r="C5">
         <v>0.004846127435128578</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40390</v>
       </c>
       <c r="B6">
-        <v>0.06131848999999989</v>
-      </c>
-      <c r="C6">
         <v>0.03697127550696777</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40421</v>
       </c>
       <c r="B7">
-        <v>0.06702279</v>
-      </c>
-      <c r="C7">
         <v>0.005374729691178803</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40451</v>
       </c>
       <c r="B8">
-        <v>0.08752552999999996</v>
-      </c>
-      <c r="C8">
         <v>0.01921490355421551</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40482</v>
       </c>
       <c r="B9">
-        <v>0.09883861000000005</v>
-      </c>
-      <c r="C9">
         <v>0.01040258797418758</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40512</v>
       </c>
       <c r="B10">
-        <v>0.1067991699999999</v>
-      </c>
-      <c r="C10">
         <v>0.007244521558993799</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40543</v>
       </c>
       <c r="B11">
-        <v>0.1158744</v>
-      </c>
-      <c r="C11">
         <v>0.008199527290935871</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40574</v>
       </c>
       <c r="B12">
-        <v>0.1264675900000001</v>
-      </c>
-      <c r="C12">
         <v>0.009493174142179539</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40602</v>
       </c>
       <c r="B13">
-        <v>0.13382216</v>
-      </c>
-      <c r="C13">
         <v>0.006528878473991417</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40633</v>
       </c>
       <c r="B14">
-        <v>0.14049198</v>
-      </c>
-      <c r="C14">
         <v>0.005882598025778618</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40663</v>
       </c>
       <c r="B15">
-        <v>0.14419111</v>
-      </c>
-      <c r="C15">
         <v>0.003243451128871699</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40694</v>
       </c>
       <c r="B16">
-        <v>0.1616532500000001</v>
-      </c>
-      <c r="C16">
         <v>0.01526155888416247</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40724</v>
       </c>
       <c r="B17">
-        <v>0.1689344399999999</v>
-      </c>
-      <c r="C17">
         <v>0.006267954744670901</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40755</v>
       </c>
       <c r="B18">
-        <v>0.1810342700000001</v>
-      </c>
-      <c r="C18">
         <v>0.01035116220889187</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40786</v>
       </c>
       <c r="B19">
-        <v>0.2066898399999999</v>
-      </c>
-      <c r="C19">
         <v>0.02172296829286746</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40816</v>
       </c>
       <c r="B20">
-        <v>0.22824022</v>
-      </c>
-      <c r="C20">
         <v>0.01785908796580249</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40847</v>
       </c>
       <c r="B21">
-        <v>0.24499319</v>
-      </c>
-      <c r="C21">
         <v>0.01363981550775129</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40877</v>
       </c>
       <c r="B22">
-        <v>0.25916049</v>
-      </c>
-      <c r="C22">
         <v>0.01137941967377354</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40908</v>
       </c>
       <c r="B23">
-        <v>0.26462933</v>
-      </c>
-      <c r="C23">
         <v>0.004343243012651987</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40939</v>
       </c>
       <c r="B24">
-        <v>0.2879324599999999</v>
-      </c>
-      <c r="C24">
         <v>0.01842684607038181</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40968</v>
       </c>
       <c r="B25">
-        <v>0.30980422</v>
-      </c>
-      <c r="C25">
         <v>0.0169820706281445</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40999</v>
       </c>
       <c r="B26">
-        <v>0.33369614</v>
-      </c>
-      <c r="C26">
         <v>0.0182408329696786</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41029</v>
       </c>
       <c r="B27">
-        <v>0.3494847800000001</v>
-      </c>
-      <c r="C27">
         <v>0.01183825875060274</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41060</v>
       </c>
       <c r="B28">
-        <v>0.38271663</v>
-      </c>
-      <c r="C28">
         <v>0.02462558340228194</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41090</v>
       </c>
       <c r="B29">
-        <v>0.40922361</v>
-      </c>
-      <c r="C29">
         <v>0.01917021855736256</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41121</v>
       </c>
       <c r="B30">
-        <v>0.4324121700000001</v>
-      </c>
-      <c r="C30">
         <v>0.01645484778671857</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41152</v>
       </c>
       <c r="B31">
-        <v>0.4324196199999999</v>
-      </c>
-      <c r="C31">
         <v>5.201016966882577e-06</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41182</v>
       </c>
       <c r="B32">
-        <v>0.43245735</v>
-      </c>
-      <c r="C32">
         <v>2.6340046920037e-05</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41213</v>
       </c>
       <c r="B33">
-        <v>0.4497937599999999</v>
-      </c>
-      <c r="C33">
         <v>0.01210256626488748</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41243</v>
       </c>
       <c r="B34">
-        <v>0.46544447</v>
-      </c>
-      <c r="C34">
         <v>0.01079512854297304</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41274</v>
       </c>
       <c r="B35">
-        <v>0.4922145499999999</v>
-      </c>
-      <c r="C35">
         <v>0.01826754991268964</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41305</v>
       </c>
       <c r="B36">
-        <v>0.50135598</v>
-      </c>
-      <c r="C36">
         <v>0.006126082874610805</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41333</v>
       </c>
       <c r="B37">
-        <v>0.5180395600000001</v>
-      </c>
-      <c r="C37">
         <v>0.0111123412583336</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41364</v>
       </c>
       <c r="B38">
-        <v>0.5241501500000001</v>
-      </c>
-      <c r="C38">
         <v>0.004025316705185134</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41394</v>
       </c>
       <c r="B39">
-        <v>0.5264476600000001</v>
-      </c>
-      <c r="C39">
         <v>0.001507403978538546</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41425</v>
       </c>
       <c r="B40">
-        <v>0.5631814500000001</v>
-      </c>
-      <c r="C40">
         <v>0.02406488670564699</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41455</v>
       </c>
       <c r="B41">
-        <v>0.59664238</v>
-      </c>
-      <c r="C41">
         <v>0.02140565959249319</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41486</v>
       </c>
       <c r="B42">
-        <v>0.6043280200000001</v>
-      </c>
-      <c r="C42">
         <v>0.004813626455286713</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41517</v>
       </c>
       <c r="B43">
-        <v>0.5773991599999999</v>
-      </c>
-      <c r="C43">
         <v>-0.01678513350405741</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41547</v>
       </c>
       <c r="B44">
-        <v>0.57454472</v>
-      </c>
-      <c r="C44">
         <v>-0.001809586357330084</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41578</v>
       </c>
       <c r="B45">
-        <v>0.5904008999999999</v>
-      </c>
-      <c r="C45">
         <v>0.01007032686883602</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41608</v>
       </c>
       <c r="B46">
-        <v>0.63065511</v>
-      </c>
-      <c r="C46">
         <v>0.02531073140112028</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41639</v>
       </c>
       <c r="B47">
-        <v>0.6254410100000001</v>
-      </c>
-      <c r="C47">
         <v>-0.003197549235288588</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41670</v>
       </c>
       <c r="B48">
-        <v>0.62891389</v>
-      </c>
-      <c r="C48">
         <v>0.002136577075780854</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41698</v>
       </c>
       <c r="B49">
-        <v>0.6513616499999999</v>
-      </c>
-      <c r="C49">
         <v>0.01378081440511258</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41729</v>
       </c>
       <c r="B50">
-        <v>0.6702987199999999</v>
-      </c>
-      <c r="C50">
         <v>0.01146754861359423</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41759</v>
       </c>
       <c r="B51">
-        <v>0.6759712899999999</v>
-      </c>
-      <c r="C51">
         <v>0.003396141020810983</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41790</v>
       </c>
       <c r="B52">
-        <v>0.71206956</v>
-      </c>
-      <c r="C52">
         <v>0.02153871621512082</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41820</v>
       </c>
       <c r="B53">
-        <v>0.74544941</v>
-      </c>
-      <c r="C53">
         <v>0.019496783763856</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41851</v>
       </c>
       <c r="B54">
-        <v>0.73047617</v>
-      </c>
-      <c r="C54">
         <v>-0.008578443989390672</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41882</v>
       </c>
       <c r="B55">
-        <v>0.7745507300000001</v>
-      </c>
-      <c r="C55">
         <v>0.02546961395024594</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41912</v>
       </c>
       <c r="B56">
-        <v>0.75051567</v>
-      </c>
-      <c r="C56">
         <v>-0.0135443070708946</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41943</v>
       </c>
       <c r="B57">
-        <v>0.7733396100000001</v>
-      </c>
-      <c r="C57">
         <v>0.01303840941909429</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41973</v>
       </c>
       <c r="B58">
-        <v>0.83233219</v>
-      </c>
-      <c r="C58">
         <v>0.03326637473574512</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42004</v>
       </c>
       <c r="B59">
-        <v>0.8450116599999999</v>
-      </c>
-      <c r="C59">
         <v>0.006919853326377456</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42035</v>
       </c>
       <c r="B60">
-        <v>0.8185091200000001</v>
-      </c>
-      <c r="C60">
         <v>-0.01436442954512274</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42063</v>
       </c>
       <c r="B61">
-        <v>0.84889269</v>
-      </c>
-      <c r="C61">
         <v>0.01670795580062845</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42094</v>
       </c>
       <c r="B62">
-        <v>0.9359030399999999</v>
-      </c>
-      <c r="C62">
         <v>0.04706078966648941</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42124</v>
       </c>
       <c r="B63">
-        <v>0.9273732400000001</v>
-      </c>
-      <c r="C63">
         <v>-0.004406109099348132</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42155</v>
       </c>
       <c r="B64">
-        <v>0.94842906</v>
-      </c>
-      <c r="C64">
         <v>0.01092461987279636</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42185</v>
       </c>
       <c r="B65">
-        <v>0.9682871</v>
-      </c>
-      <c r="C65">
         <v>0.01019182089185211</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42216</v>
       </c>
       <c r="B66">
-        <v>1.05659791</v>
-      </c>
-      <c r="C66">
         <v>0.04486683370530642</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42247</v>
       </c>
       <c r="B67">
-        <v>1.06280722</v>
-      </c>
-      <c r="C67">
         <v>0.003019214387901537</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42277</v>
       </c>
       <c r="B68">
-        <v>1.11800637</v>
-      </c>
-      <c r="C68">
         <v>0.02675923831602645</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42308</v>
       </c>
       <c r="B69">
-        <v>1.0705482</v>
-      </c>
-      <c r="C69">
         <v>-0.02240700059839751</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42338</v>
       </c>
       <c r="B70">
-        <v>1.11876633</v>
-      </c>
-      <c r="C70">
         <v>0.02328761532815316</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42369</v>
       </c>
       <c r="B71">
-        <v>1.15320396</v>
-      </c>
-      <c r="C71">
         <v>0.01625362339980163</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42400</v>
       </c>
       <c r="B72">
-        <v>1.16876159</v>
-      </c>
-      <c r="C72">
         <v>0.007225339674742148</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42429</v>
       </c>
       <c r="B73">
-        <v>1.14382435</v>
-      </c>
-      <c r="C73">
         <v>-0.01149837774469242</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42460</v>
       </c>
       <c r="B74">
-        <v>1.0716175</v>
-      </c>
-      <c r="C74">
         <v>-0.03368132748375596</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42490</v>
       </c>
       <c r="B75">
-        <v>1.0766185</v>
-      </c>
-      <c r="C75">
         <v>0.002414055683541916</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42521</v>
       </c>
       <c r="B76">
-        <v>1.09332147</v>
-      </c>
-      <c r="C76">
         <v>0.008043350283164719</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42551</v>
       </c>
       <c r="B77">
-        <v>1.137328</v>
-      </c>
-      <c r="C77">
         <v>0.02102234684479698</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42582</v>
       </c>
       <c r="B78">
-        <v>1.1621552</v>
-      </c>
-      <c r="C78">
         <v>0.01161599904179411</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42613</v>
       </c>
       <c r="B79">
-        <v>1.17421664</v>
-      </c>
-      <c r="C79">
         <v>0.005578433962557305</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42643</v>
       </c>
       <c r="B80">
-        <v>1.18347612</v>
-      </c>
-      <c r="C80">
         <v>0.004258766044583195</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42674</v>
       </c>
       <c r="B81">
-        <v>1.25421119</v>
-      </c>
-      <c r="C81">
         <v>0.03239562336042412</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42704</v>
       </c>
       <c r="B82">
-        <v>1.2674504</v>
-      </c>
-      <c r="C82">
         <v>0.005873101002572989</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42735</v>
       </c>
       <c r="B83">
-        <v>1.27093265</v>
-      </c>
-      <c r="C83">
         <v>0.001535755754569212</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42766</v>
       </c>
       <c r="B84">
-        <v>1.32112615</v>
-      </c>
-      <c r="C84">
         <v>0.0221025929588885</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42794</v>
       </c>
       <c r="B85">
-        <v>1.35122005</v>
-      </c>
-      <c r="C85">
         <v>0.0129652151822941</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42825</v>
       </c>
       <c r="B86">
-        <v>1.3644378</v>
-      </c>
-      <c r="C86">
         <v>0.005621655871810294</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42855</v>
       </c>
       <c r="B87">
-        <v>1.38584266</v>
-      </c>
-      <c r="C87">
         <v>0.009052832770648278</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42886</v>
       </c>
       <c r="B88">
-        <v>1.37817926</v>
-      </c>
-      <c r="C88">
         <v>-0.003212030754785711</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42916</v>
       </c>
       <c r="B89">
-        <v>1.40389406</v>
-      </c>
-      <c r="C89">
         <v>0.01081280979634802</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42947</v>
       </c>
       <c r="B90">
-        <v>1.43673521</v>
-      </c>
-      <c r="C90">
         <v>0.01366164613760068</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42978</v>
       </c>
       <c r="B91">
-        <v>1.46319366</v>
-      </c>
-      <c r="C91">
         <v>0.01085815557284109</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43008</v>
       </c>
       <c r="B92">
-        <v>1.5046653</v>
-      </c>
-      <c r="C92">
         <v>0.01683653245518668</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43039</v>
       </c>
       <c r="B93">
-        <v>1.50951102</v>
-      </c>
-      <c r="C93">
         <v>0.001934677659326312</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43069</v>
       </c>
       <c r="B94">
-        <v>1.50592386</v>
-      </c>
-      <c r="C94">
         <v>-0.001429425880744017</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43100</v>
       </c>
       <c r="B95">
-        <v>1.52195348</v>
-      </c>
-      <c r="C95">
         <v>0.006396690759790324</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43131</v>
       </c>
       <c r="B96">
-        <v>1.59630629</v>
-      </c>
-      <c r="C96">
         <v>0.02948222899020325</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43159</v>
       </c>
       <c r="B97">
-        <v>1.59934758</v>
-      </c>
-      <c r="C97">
         <v>0.001171391068809591</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43190</v>
       </c>
       <c r="B98">
-        <v>1.62131335</v>
-      </c>
-      <c r="C98">
         <v>0.008450493565773876</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43220</v>
       </c>
       <c r="B99">
-        <v>1.62926402</v>
-      </c>
-      <c r="C99">
         <v>0.003033086448821498</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43251</v>
       </c>
       <c r="B100">
-        <v>1.60147255</v>
-      </c>
-      <c r="C100">
         <v>-0.01057005678722212</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43281</v>
       </c>
       <c r="B101">
-        <v>1.62065412</v>
-      </c>
-      <c r="C101">
         <v>0.007373350912351695</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43312</v>
       </c>
       <c r="B102">
-        <v>1.64990792</v>
-      </c>
-      <c r="C102">
         <v>0.01116278557202333</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43343</v>
       </c>
       <c r="B103">
-        <v>1.67882781</v>
-      </c>
-      <c r="C103">
         <v>0.01091354525254595</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43373</v>
       </c>
       <c r="B104">
-        <v>1.71237095</v>
-      </c>
-      <c r="C104">
         <v>0.01252157375505214</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43404</v>
       </c>
       <c r="B105">
-        <v>1.74328988</v>
-      </c>
-      <c r="C105">
         <v>0.01139922620097367</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43434</v>
       </c>
       <c r="B106">
-        <v>1.72416913</v>
-      </c>
-      <c r="C106">
         <v>-0.006970007121522293</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43465</v>
       </c>
       <c r="B107">
-        <v>1.76879429</v>
-      </c>
-      <c r="C107">
         <v>0.01638120023774015</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43496</v>
       </c>
       <c r="B108">
-        <v>1.81817505</v>
-      </c>
-      <c r="C108">
         <v>0.01783475218016273</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43524</v>
       </c>
       <c r="B109">
-        <v>1.81939519</v>
-      </c>
-      <c r="C109">
         <v>0.0004329539430136808</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43555</v>
       </c>
       <c r="B110">
-        <v>1.82493473</v>
-      </c>
-      <c r="C110">
         <v>0.001964797279802477</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43585</v>
       </c>
       <c r="B111">
-        <v>1.83770738</v>
-      </c>
-      <c r="C111">
         <v>0.004521396499663544</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43616</v>
       </c>
       <c r="B112">
-        <v>1.86231912</v>
-      </c>
-      <c r="C112">
         <v>0.008673107091119459</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43646</v>
       </c>
       <c r="B113">
-        <v>1.89589307</v>
-      </c>
-      <c r="C113">
         <v>0.01172963201950727</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43677</v>
       </c>
       <c r="B114">
-        <v>1.95818203</v>
-      </c>
-      <c r="C114">
         <v>0.02150941298395392</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43708</v>
       </c>
       <c r="B115">
-        <v>1.99507473</v>
-      </c>
-      <c r="C115">
         <v>0.01247140967859894</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43738</v>
       </c>
       <c r="B116">
-        <v>2.00987129</v>
-      </c>
-      <c r="C116">
         <v>0.004940297432912466</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43769</v>
       </c>
       <c r="B117">
-        <v>2.03085703</v>
-      </c>
-      <c r="C117">
         <v>0.00697230478583033</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43799</v>
       </c>
       <c r="B118">
-        <v>2.00825681</v>
-      </c>
-      <c r="C118">
         <v>-0.007456709365139647</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43830</v>
       </c>
       <c r="B119">
-        <v>2.03985309</v>
-      </c>
-      <c r="C119">
         <v>0.01050318573034326</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43861</v>
       </c>
       <c r="B120">
-        <v>2.0627285</v>
-      </c>
-      <c r="C120">
         <v>0.007525169579823299</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43890</v>
       </c>
       <c r="B121">
-        <v>2.05798127</v>
-      </c>
-      <c r="C121">
         <v>-0.001550000269367691</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43921</v>
       </c>
       <c r="B122">
-        <v>2.06012736</v>
-      </c>
-      <c r="C122">
         <v>0.0007017995895051143</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43951</v>
       </c>
       <c r="B123">
-        <v>2.08156222</v>
-      </c>
-      <c r="C123">
         <v>0.007004564672759228</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43982</v>
       </c>
       <c r="B124">
-        <v>2.10239548</v>
-      </c>
-      <c r="C124">
         <v>0.006760616373340689</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>44012</v>
       </c>
       <c r="B125">
-        <v>2.12031767</v>
-      </c>
-      <c r="C125">
         <v>0.005776887606862902</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>44043</v>
       </c>
       <c r="B126">
-        <v>2.15808867</v>
-      </c>
-      <c r="C126">
         <v>0.01210485725961363</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44074</v>
       </c>
       <c r="B127">
-        <v>2.19612497</v>
-      </c>
-      <c r="C127">
         <v>0.01204408867975193</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44104</v>
       </c>
       <c r="B128">
-        <v>2.16567916</v>
-      </c>
-      <c r="C128">
         <v>-0.009525850924408719</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>44135</v>
       </c>
       <c r="B129">
-        <v>2.17002054</v>
-      </c>
-      <c r="C129">
         <v>0.001371389765221886</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>44165</v>
       </c>
       <c r="B130">
-        <v>2.16505204</v>
-      </c>
-      <c r="C130">
-        <v>-0.001567340002156525</v>
+        <v>-0.002562636392254958</v>
       </c>
     </row>
   </sheetData>
